--- a/SchedulingData/dynamic11/pso/scheduling1_12.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling1_12.xlsx
@@ -466,74 +466,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>58.86</v>
+        <v>42.7</v>
       </c>
       <c r="E2" t="n">
-        <v>27.264</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>49.12</v>
       </c>
       <c r="E3" t="n">
-        <v>25.2</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>128.52</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>20.988</v>
+        <v>25.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>128.52</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>198.2</v>
+        <v>143.32</v>
       </c>
       <c r="E5" t="n">
-        <v>17.14</v>
+        <v>20.948</v>
       </c>
     </row>
     <row r="6">
@@ -546,222 +546,222 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>198.2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>239.8</v>
+        <v>57</v>
       </c>
       <c r="E6" t="n">
-        <v>13.62</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
-        <v>93.09999999999999</v>
+        <v>105.6</v>
       </c>
       <c r="E7" t="n">
-        <v>25.84</v>
+        <v>22.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58.86</v>
+        <v>49.12</v>
       </c>
       <c r="D8" t="n">
-        <v>126.16</v>
+        <v>109.84</v>
       </c>
       <c r="E8" t="n">
-        <v>23.624</v>
+        <v>22.356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>93.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>149.86</v>
+        <v>53.42</v>
       </c>
       <c r="E9" t="n">
-        <v>21.784</v>
+        <v>26.828</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>149.86</v>
+        <v>53.42</v>
       </c>
       <c r="D10" t="n">
-        <v>196</v>
+        <v>115.38</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3</v>
+        <v>22.772</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>126.16</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>189.52</v>
+        <v>71.7</v>
       </c>
       <c r="E11" t="n">
-        <v>20.888</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>109.84</v>
       </c>
       <c r="D12" t="n">
-        <v>46.2</v>
+        <v>182.34</v>
       </c>
       <c r="E12" t="n">
-        <v>26.58</v>
+        <v>18.196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>105.6</v>
       </c>
       <c r="D13" t="n">
-        <v>41.32</v>
+        <v>160.48</v>
       </c>
       <c r="E13" t="n">
-        <v>26.568</v>
+        <v>18.912</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>41.32</v>
+        <v>42.7</v>
       </c>
       <c r="D14" t="n">
-        <v>91.62</v>
+        <v>109.26</v>
       </c>
       <c r="E14" t="n">
-        <v>22.668</v>
+        <v>22.864</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>71.7</v>
       </c>
       <c r="D15" t="n">
-        <v>76.3</v>
+        <v>132.1</v>
       </c>
       <c r="E15" t="n">
-        <v>25.52</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>91.62</v>
+        <v>182.34</v>
       </c>
       <c r="D16" t="n">
-        <v>162.38</v>
+        <v>261.24</v>
       </c>
       <c r="E16" t="n">
-        <v>19.212</v>
+        <v>13.396</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>76.3</v>
+        <v>143.32</v>
       </c>
       <c r="D17" t="n">
-        <v>140.72</v>
+        <v>209.42</v>
       </c>
       <c r="E17" t="n">
-        <v>21.208</v>
+        <v>16.468</v>
       </c>
     </row>
     <row r="18">
@@ -770,188 +770,188 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>162.38</v>
+        <v>132.1</v>
       </c>
       <c r="D18" t="n">
-        <v>208.12</v>
+        <v>218.28</v>
       </c>
       <c r="E18" t="n">
-        <v>16.748</v>
+        <v>18.092</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>196</v>
+        <v>115.38</v>
       </c>
       <c r="D19" t="n">
-        <v>259.6</v>
+        <v>172.88</v>
       </c>
       <c r="E19" t="n">
-        <v>14.58</v>
+        <v>19.132</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>140.72</v>
+        <v>109.26</v>
       </c>
       <c r="D20" t="n">
-        <v>198.94</v>
+        <v>151.96</v>
       </c>
       <c r="E20" t="n">
-        <v>18.016</v>
+        <v>20.224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>208.12</v>
+        <v>160.48</v>
       </c>
       <c r="D21" t="n">
-        <v>279.2</v>
+        <v>208.94</v>
       </c>
       <c r="E21" t="n">
-        <v>13.22</v>
+        <v>16.176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>189.52</v>
+        <v>218.28</v>
       </c>
       <c r="D22" t="n">
-        <v>248.22</v>
+        <v>266.84</v>
       </c>
       <c r="E22" t="n">
-        <v>16.148</v>
+        <v>15.356</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>46.2</v>
+        <v>172.88</v>
       </c>
       <c r="D23" t="n">
-        <v>102.3</v>
+        <v>257.06</v>
       </c>
       <c r="E23" t="n">
-        <v>22.1</v>
+        <v>15.284</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>279.2</v>
+        <v>151.96</v>
       </c>
       <c r="D24" t="n">
-        <v>338.98</v>
+        <v>232.76</v>
       </c>
       <c r="E24" t="n">
-        <v>9.372</v>
+        <v>15.744</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>102.3</v>
+        <v>261.24</v>
       </c>
       <c r="D25" t="n">
-        <v>183.86</v>
+        <v>354.06</v>
       </c>
       <c r="E25" t="n">
-        <v>18.044</v>
+        <v>10.204</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>198.94</v>
+        <v>208.94</v>
       </c>
       <c r="D26" t="n">
-        <v>264.84</v>
+        <v>264.88</v>
       </c>
       <c r="E26" t="n">
-        <v>13.536</v>
+        <v>12.692</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>239.8</v>
+        <v>209.42</v>
       </c>
       <c r="D27" t="n">
-        <v>286.9</v>
+        <v>260.18</v>
       </c>
       <c r="E27" t="n">
-        <v>10.54</v>
+        <v>13.012</v>
       </c>
     </row>
     <row r="28">
@@ -960,74 +960,74 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>286.9</v>
+        <v>264.88</v>
       </c>
       <c r="D28" t="n">
-        <v>345.5</v>
+        <v>320.36</v>
       </c>
       <c r="E28" t="n">
-        <v>7.78</v>
+        <v>9.744</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>264.84</v>
+        <v>260.18</v>
       </c>
       <c r="D29" t="n">
-        <v>312.86</v>
+        <v>318.98</v>
       </c>
       <c r="E29" t="n">
-        <v>10.364</v>
+        <v>10.252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>183.86</v>
+        <v>266.84</v>
       </c>
       <c r="D30" t="n">
-        <v>224.64</v>
+        <v>322.48</v>
       </c>
       <c r="E30" t="n">
-        <v>15.096</v>
+        <v>12.892</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>248.22</v>
+        <v>257.06</v>
       </c>
       <c r="D31" t="n">
-        <v>285.92</v>
+        <v>331.96</v>
       </c>
       <c r="E31" t="n">
-        <v>13.508</v>
+        <v>11.864</v>
       </c>
     </row>
   </sheetData>
